--- a/biology/Botanique/Walter_Bally/Walter_Bally.xlsx
+++ b/biology/Botanique/Walter_Bally/Walter_Bally.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Bally, né à Aarau en 1882 et mort à Genève en 1959, est un botaniste suisse.
 </t>
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titulaire d'une thèse en algologie présentée à Zürich, Bally commence sa carrière à Bonn et à Genève ; il est nommé assistant à la station expérimentale centrale de Java en 1919 et en devient directeur l'année suivante. Il est ensuite attaché à la station expérimentale de Malang dans l'est de Java et enfin chef de la division des cultures tropicales et subtropicales de l'Institut international d'agriculture de Rome[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titulaire d'une thèse en algologie présentée à Zürich, Bally commence sa carrière à Bonn et à Genève ; il est nommé assistant à la station expérimentale centrale de Java en 1919 et en devient directeur l'année suivante. Il est ensuite attaché à la station expérimentale de Malang dans l'est de Java et enfin chef de la division des cultures tropicales et subtropicales de l'Institut international d'agriculture de Rome.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Der Obere Zürichsee : Beiträge zu einer Monographie », Inaugural-Dissertation Universitat Zürich, Archiv für Hydrobiologie und Planktonkunde, 1907, vol. 3, p. 113-178.
 De ziekten van de koffie (Les maladies du café), Amsterdam, J.H. De Bussy, 1931, xiii, 212 p.
